--- a/android/Rxjava.xlsx
+++ b/android/Rxjava.xlsx
@@ -1,51 +1,381 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB25454-01B7-4B15-8E86-0E8A88D7CFE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="18840" windowHeight="10365"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -53,31 +383,317 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -93,19 +709,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E80AB27-24C9-412F-BE49-59D5630BDB42}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -113,7 +723,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="247650" y="666750"/>
-          <a:ext cx="9171428" cy="2447619"/>
+          <a:ext cx="9171305" cy="2447290"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -137,19 +747,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{608B8EC4-4F9A-4CD8-9D19-8905CCC882E6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -157,7 +761,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="257175" y="3552825"/>
-          <a:ext cx="9333333" cy="5457143"/>
+          <a:ext cx="9333230" cy="5456555"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -181,19 +785,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{932E601B-A5F3-462A-AE52-7C34F73901DF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -201,7 +799,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="533400" y="9515475"/>
-          <a:ext cx="4914286" cy="5390476"/>
+          <a:ext cx="4914265" cy="5389880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -225,19 +823,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3E96282-4E80-4CF7-BEA0-A45EEEE199EA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -245,7 +837,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="466725" y="15259050"/>
-          <a:ext cx="8400000" cy="1800000"/>
+          <a:ext cx="8399780" cy="1799590"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -269,19 +861,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9006E90-51C5-4212-9E72-3EB47283D73D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -289,7 +875,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="457200" y="18107025"/>
-          <a:ext cx="9676190" cy="5285714"/>
+          <a:ext cx="9676130" cy="5285105"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -313,19 +899,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90A7508A-52E2-4DDB-AC4A-7D3724BD92FD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -333,7 +913,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="485775" y="24279225"/>
-          <a:ext cx="7828571" cy="3171429"/>
+          <a:ext cx="7828280" cy="3171190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -357,19 +937,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CD2412E-6A0A-47A3-91A7-4C0983BB94D2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -377,7 +951,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="504825" y="28079700"/>
-          <a:ext cx="9638095" cy="4761905"/>
+          <a:ext cx="9638030" cy="4761865"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -401,19 +975,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E85DCB62-11E7-496E-B0D5-14F065BA27C6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -421,7 +989,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="504825" y="33366075"/>
-          <a:ext cx="9504762" cy="4628571"/>
+          <a:ext cx="9504680" cy="4628515"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -445,19 +1013,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85960A26-A333-40A9-A94A-AC37A6CA9CE8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -465,7 +1027,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="647700" y="38814375"/>
-          <a:ext cx="9666667" cy="4952381"/>
+          <a:ext cx="9666605" cy="4952365"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -489,19 +1051,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA914115-7A37-4967-A2E4-2CDD243B8BB1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -509,7 +1065,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="638175" y="44386500"/>
-          <a:ext cx="9580952" cy="4038095"/>
+          <a:ext cx="9580880" cy="4037965"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -533,19 +1089,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9A9DAD6-B80B-439A-B595-1777DA022F28}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="12" name="Picture 11"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:blip r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -553,11 +1103,221 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="685800" y="49301400"/>
-          <a:ext cx="9380952" cy="5819048"/>
+          <a:ext cx="9380855" cy="5818505"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>312</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>349</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="800100" y="56578500"/>
+          <a:ext cx="9477375" cy="6705600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>354</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>390</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="64141350"/>
+          <a:ext cx="9420225" cy="6467475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>393</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>427</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="71142225"/>
+          <a:ext cx="9810750" cy="6238875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>430</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>464</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1343025" y="77847825"/>
+          <a:ext cx="9705975" cy="6296025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>467</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>501</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1485900" y="84648675"/>
+          <a:ext cx="8943975" cy="6086475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -608,7 +1368,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -643,7 +1403,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -817,28 +1577,23 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A268" workbookViewId="0">
-      <selection activeCell="H278" sqref="H278"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A445" workbookViewId="0">
+      <selection activeCell="I468" sqref="I468"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>